--- a/data/trans_dic/IP25A_1_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/IP25A_1_R-Edad-trans_dic.xlsx
@@ -596,7 +596,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>5/9</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -606,17 +606,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>32,19%</t>
+          <t>16,99%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>32,65%</t>
+          <t>14,07%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>32,41%</t>
+          <t>15,56%</t>
         </is>
       </c>
     </row>
@@ -629,24 +629,24 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>27,64; 37,82</t>
+          <t>12,89; 22,03</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>27,97; 39,46</t>
+          <t>10,03; 19,59</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>29,03; 36,34</t>
+          <t>12,44; 19,32</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>10/15</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>16,99%</t>
+          <t>32,19%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>14,07%</t>
+          <t>32,65%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>15,56%</t>
+          <t>32,41%</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>12,89; 22,03</t>
+          <t>27,64; 37,82</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>10,03; 19,59</t>
+          <t>27,97; 39,46</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>12,44; 19,32</t>
+          <t>29,03; 36,34</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP25A_1_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/IP25A_1_R-Edad-trans_dic.xlsx
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -546,7 +546,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>0/4</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>5,15%</t>
+          <t>4,96%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>3,3%</t>
+          <t>0,8%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>4,31%</t>
+          <t>2,96%</t>
         </is>
       </c>
     </row>
@@ -579,24 +579,24 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2,55; 9,95</t>
+          <t>1,46; 12,27</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,19; 6,92</t>
+          <t>0,0; 4,18</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,38; 7,0</t>
+          <t>1,01; 6,74</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -606,17 +606,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>16,99%</t>
+          <t>13,18%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>14,07%</t>
+          <t>8,09%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>15,56%</t>
+          <t>10,79%</t>
         </is>
       </c>
     </row>
@@ -629,24 +629,24 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>12,89; 22,03</t>
+          <t>9,28; 18,57</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>10,03; 19,59</t>
+          <t>4,75; 12,11</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>12,44; 19,32</t>
+          <t>7,77; 13,87</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>8-11</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>32,19%</t>
+          <t>17,89%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>32,65%</t>
+          <t>24,09%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>32,41%</t>
+          <t>20,78%</t>
         </is>
       </c>
     </row>
@@ -679,24 +679,24 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>27,64; 37,82</t>
+          <t>13,53; 22,86</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>27,97; 39,46</t>
+          <t>18,95; 30,61</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>29,03; 36,34</t>
+          <t>16,93; 24,72</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>12-15</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>23,55%</t>
+          <t>37,49%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>22,55%</t>
+          <t>34,57%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>23,08%</t>
+          <t>36,11%</t>
         </is>
       </c>
     </row>
@@ -729,23 +729,81 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>20,66; 27,09</t>
+          <t>31,87; 44,06</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>19,39; 26,62</t>
+          <t>28,81; 43,33</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>20,84; 25,69</t>
+          <t>31,49; 40,83</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>23,55%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>22,55%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>23,08%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>20,48; 27,19</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>19,61; 26,96</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>20,82; 25,53</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>

--- a/data/trans_dic/IP25A_1_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/IP25A_1_R-Edad-trans_dic.xlsx
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,46; 12,27</t>
+          <t>1,36; 12,06</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,18</t>
+          <t>0,0; 4,28</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,01; 6,74</t>
+          <t>0,84; 6,88</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>9,28; 18,57</t>
+          <t>9,42; 18,29</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>4,75; 12,11</t>
+          <t>5,11; 12,73</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>7,77; 13,87</t>
+          <t>8,15; 14,36</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>13,53; 22,86</t>
+          <t>13,41; 23,17</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>18,95; 30,61</t>
+          <t>18,76; 30,31</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>16,93; 24,72</t>
+          <t>16,74; 24,47</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>31,87; 44,06</t>
+          <t>31,42; 44,83</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>28,81; 43,33</t>
+          <t>29,06; 42,83</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>31,49; 40,83</t>
+          <t>31,84; 41,1</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>20,48; 27,19</t>
+          <t>20,44; 27,22</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>19,61; 26,96</t>
+          <t>19,46; 26,71</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>20,82; 25,53</t>
+          <t>20,74; 25,59</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP25A_1_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/IP25A_1_R-Edad-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -503,12 +503,12 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="E1" s="3" t="inlineStr">
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>4,96%</t>
+          <t>0,82%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,8%</t>
+          <t>5,38%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>2,96%</t>
+          <t>3,24%</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,36; 12,06</t>
+          <t>0,0; 4,17</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,28</t>
+          <t>1,86; 14,61</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,84; 6,88</t>
+          <t>1,2; 7,52</t>
         </is>
       </c>
     </row>
@@ -606,17 +606,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>13,18%</t>
+          <t>7,95%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>8,09%</t>
+          <t>13,54%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>10,79%</t>
+          <t>10,97%</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>9,42; 18,29</t>
+          <t>5,0; 12,22</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>5,11; 12,73</t>
+          <t>9,58; 18,6</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>8,15; 14,36</t>
+          <t>8,25; 14,47</t>
         </is>
       </c>
     </row>
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>17,89%</t>
+          <t>24,57%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>24,09%</t>
+          <t>18,08%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>20,78%</t>
+          <t>20,99%</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>13,41; 23,17</t>
+          <t>18,89; 31,52</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>18,76; 30,31</t>
+          <t>13,14; 23,56</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>16,74; 24,47</t>
+          <t>17,31; 25,13</t>
         </is>
       </c>
     </row>
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>37,49%</t>
+          <t>38,8%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>34,57%</t>
+          <t>38,95%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>36,11%</t>
+          <t>38,88%</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>31,42; 44,83</t>
+          <t>29,84; 57,7</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>29,06; 42,83</t>
+          <t>32,87; 47,23</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>31,84; 41,1</t>
+          <t>33,56; 49,97</t>
         </is>
       </c>
     </row>
@@ -756,17 +756,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>23,55%</t>
+          <t>24,66%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>22,55%</t>
+          <t>24,35%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>23,08%</t>
+          <t>24,49%</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>20,44; 27,22</t>
+          <t>20,09; 37,06</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>19,46; 26,71</t>
+          <t>21,19; 28,81</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>20,74; 25,59</t>
+          <t>21,85; 30,19</t>
         </is>
       </c>
     </row>
